--- a/GameGetter/Data/Temp/SteamGamesToAdd.xlsx
+++ b/GameGetter/Data/Temp/SteamGamesToAdd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <x:si>
     <x:t>Title</x:t>
   </x:si>
@@ -22,94 +22,13 @@
     <x:t>Status</x:t>
   </x:si>
   <x:si>
-    <x:t>Toast Defense</x:t>
+    <x:t>Children of Silentown: Prologue</x:t>
   </x:si>
   <x:si>
     <x:t>Received</x:t>
   </x:si>
   <x:si>
-    <x:t>Tiny Toy Tanks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BatuGame</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Phobos</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aurora: A Child's Journey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verse Surf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Super Buckyball Tournament Preseason</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Daikaiju Daikessen: Versus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Our Life: Beginnings &amp; Always</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Astria</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Disc Space</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beat Me! - Puppetonia Tournament</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tribal Wars</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GranAge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Arc Apellago</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Swing Dunk (Open Beta)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Perfect Vermin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lawyer Guy: Defender of Justice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>How Stories Die</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Coloring Book for Adults</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apex Legends</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jendo: Origins</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Space Commander: War and Trade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chess'Extra</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sword of the Necromancer - Prologue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SpellForce 3: Versus Edition</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Remnants</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Battle Star</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cubiscape 2</x:t>
+    <x:t>Toast Defense</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -460,7 +379,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B30"/>
+  <x:dimension ref="A1:B3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -487,230 +406,6 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
-      <x:c r="A5" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2">
-      <x:c r="A6" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
-      <x:c r="A7" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2">
-      <x:c r="A8" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2">
-      <x:c r="A9" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:2">
-      <x:c r="A10" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:2">
-      <x:c r="A11" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:2">
-      <x:c r="A12" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:2">
-      <x:c r="A13" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:2">
-      <x:c r="A14" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:2">
-      <x:c r="A15" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:2">
-      <x:c r="A16" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:2">
-      <x:c r="A17" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:2">
-      <x:c r="A18" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B18" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:2">
-      <x:c r="A19" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B19" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:2">
-      <x:c r="A20" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B20" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:2">
-      <x:c r="A21" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B21" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:2">
-      <x:c r="A22" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B22" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:2">
-      <x:c r="A23" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B23" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:2">
-      <x:c r="A24" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B24" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:2">
-      <x:c r="A25" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B25" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:2">
-      <x:c r="A26" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B26" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:2">
-      <x:c r="A27" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B27" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:2">
-      <x:c r="A28" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B28" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:2">
-      <x:c r="A29" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B29" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:2">
-      <x:c r="A30" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B30" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:2">
-      <x:c r="A31" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B31" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
